--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>952614.2154059607</v>
+        <v>1002506.992056959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7676480.500730851</v>
+        <v>7676480.50073085</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.551688494702295</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>18.40882703545761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>101.7602216085921</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>72.47049842454874</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>114.6601591135565</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.0919981392954</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>80.83011447495538</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.02544070929549</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>71.0475892241973</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>295.1618149227287</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
         <v>220.5164804230398</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>33.07267197921568</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>47.61380223690221</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>114.1942888468236</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>289.6677726676717</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>352.6116617610522</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>36.91861889770985</v>
       </c>
       <c r="I15" t="n">
-        <v>14.69071946508196</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.64439241526548</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.19479062707042</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>84.65566922272912</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>260.2204828492325</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>113.4883178883721</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>114.1696399384647</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>95.62509027839809</v>
       </c>
       <c r="H20" t="n">
-        <v>111.768170481875</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
@@ -2137,16 +2137,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>100.7750641116034</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>188.6451645177678</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>157.7727335375555</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>269.9752782080819</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>35.85275176271214</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>220.5164804230398</v>
@@ -2377,7 +2377,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>7.543452226199831</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>12.35168551462424</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>39.35575705081059</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>258.9377082054306</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>68.60564687185125</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>195.5251108792963</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>39.1947906270704</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>43.50864318698267</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>66.17054555350505</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>19.11210057532838</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>405.7415719969023</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>5.862884104743027</v>
       </c>
       <c r="Y32" t="n">
-        <v>25.70186532761044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>134.2133797814143</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>88.52732606836729</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>39.19479062707042</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>39.53359244614298</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>208.6031950382871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>120.9830058185664</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>21.95667389907128</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,23 +3502,23 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>285.2121983846091</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G38" t="n">
-        <v>399.8885402891419</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>72.49615621604865</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3647,10 +3647,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.7727335375555</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>176.8839300665535</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.666355695961739</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>62.51580823726223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>102.5793876238629</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>153.3438009742605</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>30.44996741998436</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>55.15641005250293</v>
+      </c>
+      <c r="G44" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>179.372059866102</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
@@ -4112,13 +4112,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>200.2058185760211</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>73.18052767499205</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>502.8591282797204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>343.6990549420324</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>957.4392883442703</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>957.4392883442703</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>746.3079049238204</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>746.3079049238204</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>531.8759051649694</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C3" t="n">
-        <v>531.8759051649694</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D3" t="n">
-        <v>382.9414955037181</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="V3" t="n">
-        <v>531.8759051649694</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="W3" t="n">
-        <v>531.8759051649694</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X3" t="n">
-        <v>531.8759051649694</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y3" t="n">
-        <v>531.8759051649694</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
         <v>41.77557929797318</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>104.5536560184564</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>547.1910343172051</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C6" t="n">
-        <v>547.1910343172051</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D6" t="n">
-        <v>431.3726917782591</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1910343172051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>547.1910343172051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.1910343172051</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="C8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="F8" t="n">
         <v>348.0024326625565</v>
-      </c>
-      <c r="C8" t="n">
-        <v>266.3558523848238</v>
-      </c>
-      <c r="D8" t="n">
-        <v>266.3558523848238</v>
-      </c>
-      <c r="E8" t="n">
-        <v>266.3558523848238</v>
-      </c>
-      <c r="F8" t="n">
-        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4846,10 +4846,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>842.6599081753446</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>716.3908257546921</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C11" t="n">
-        <v>716.3908257546921</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D11" t="n">
-        <v>418.2475783579964</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1400.222368368377</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>1400.222368368377</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V11" t="n">
-        <v>1069.159481024806</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W11" t="n">
-        <v>716.3908257546921</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="X11" t="n">
-        <v>716.3908257546921</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="Y11" t="n">
-        <v>716.3908257546921</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>206.9123550408792</v>
+        <v>496.6196464651041</v>
       </c>
       <c r="C12" t="n">
-        <v>32.45932575975218</v>
+        <v>496.6196464651041</v>
       </c>
       <c r="D12" t="n">
-        <v>32.45932575975218</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975218</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N12" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T12" t="n">
-        <v>1340.116286433832</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U12" t="n">
-        <v>1111.91361897131</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V12" t="n">
-        <v>876.7615107395675</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W12" t="n">
-        <v>622.5241540113659</v>
+        <v>704.4711466706369</v>
       </c>
       <c r="X12" t="n">
-        <v>414.6726538058331</v>
+        <v>496.6196464651041</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.9123550408792</v>
+        <v>496.6196464651041</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5229,22 +5229,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>132.1392625228377</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.0530355250771</v>
+        <v>757.5952384183985</v>
       </c>
       <c r="C14" t="n">
-        <v>325.0530355250771</v>
+        <v>388.6327214779868</v>
       </c>
       <c r="D14" t="n">
-        <v>325.0530355250771</v>
+        <v>388.6327214779868</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>388.6327214779868</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,7 +5302,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
         <v>1311.402045381201</v>
@@ -5314,16 +5314,16 @@
         <v>1088.658125761969</v>
       </c>
       <c r="V14" t="n">
-        <v>1088.658125761969</v>
+        <v>757.5952384183985</v>
       </c>
       <c r="W14" t="n">
-        <v>1088.658125761969</v>
+        <v>757.5952384183985</v>
       </c>
       <c r="X14" t="n">
-        <v>715.1923675008888</v>
+        <v>757.5952384183985</v>
       </c>
       <c r="Y14" t="n">
-        <v>325.0530355250771</v>
+        <v>757.5952384183985</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>750.7107902037303</v>
+        <v>454.8582495513004</v>
       </c>
       <c r="C15" t="n">
-        <v>750.7107902037303</v>
+        <v>454.8582495513004</v>
       </c>
       <c r="D15" t="n">
-        <v>601.776380542479</v>
+        <v>454.8582495513004</v>
       </c>
       <c r="E15" t="n">
-        <v>442.5389255370235</v>
+        <v>295.6207945458449</v>
       </c>
       <c r="F15" t="n">
-        <v>296.0043675639085</v>
+        <v>149.0862365727299</v>
       </c>
       <c r="G15" t="n">
-        <v>157.5919943230788</v>
+        <v>149.0862365727299</v>
       </c>
       <c r="H15" t="n">
-        <v>47.29843633054205</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L15" t="n">
-        <v>505.948365158507</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M15" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
         <v>1622.966287987609</v>
@@ -5384,25 +5384,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U15" t="n">
-        <v>1173.163483952</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V15" t="n">
-        <v>1173.163483952</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W15" t="n">
-        <v>918.9261272237984</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X15" t="n">
-        <v>918.9261272237984</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="Y15" t="n">
-        <v>918.9261272237984</v>
+        <v>623.0735865713684</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>213.333508020557</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>66.44356052264661</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5466,22 +5466,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1137.373395793395</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.373395793395</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="D17" t="n">
-        <v>779.107697186644</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="E17" t="n">
-        <v>779.107697186644</v>
+        <v>117.9701027524079</v>
       </c>
       <c r="F17" t="n">
-        <v>369.2677254726013</v>
+        <v>117.9701027524079</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
         <v>32.45932575975218</v>
@@ -5515,16 +5515,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1400.222368368377</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1137.373395793395</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="X17" t="n">
-        <v>1137.373395793395</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="Y17" t="n">
-        <v>1137.373395793395</v>
+        <v>503.7583553506521</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>206.9123550408792</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
         <v>32.45932575975218</v>
@@ -5594,25 +5594,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809357</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>636.3836421851986</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5621,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1508.3316234539</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1508.3316234539</v>
+        <v>1340.141184321063</v>
       </c>
       <c r="U18" t="n">
-        <v>1280.128955991378</v>
+        <v>1111.938516858541</v>
       </c>
       <c r="V18" t="n">
-        <v>1044.976847759636</v>
+        <v>1111.938516858541</v>
       </c>
       <c r="W18" t="n">
-        <v>790.739491031434</v>
+        <v>1111.938516858541</v>
       </c>
       <c r="X18" t="n">
-        <v>582.8879908259012</v>
+        <v>904.0870166530085</v>
       </c>
       <c r="Y18" t="n">
-        <v>375.1276920609472</v>
+        <v>904.0870166530085</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975218</v>
@@ -5697,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.356467660636</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="C20" t="n">
-        <v>145.356467660636</v>
+        <v>465.8587257538115</v>
       </c>
       <c r="D20" t="n">
-        <v>145.356467660636</v>
+        <v>465.8587257538115</v>
       </c>
       <c r="E20" t="n">
-        <v>145.356467660636</v>
+        <v>465.8587257538115</v>
       </c>
       <c r="F20" t="n">
-        <v>145.356467660636</v>
+        <v>465.8587257538115</v>
       </c>
       <c r="G20" t="n">
-        <v>145.356467660636</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975219</v>
@@ -5752,16 +5752,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>1202.653768535401</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V20" t="n">
-        <v>871.5908811918301</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="W20" t="n">
-        <v>518.8222259217159</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="X20" t="n">
-        <v>145.356467660636</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.356467660636</v>
+        <v>834.8212426942232</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>191.6967807652077</v>
+        <v>557.4112803263704</v>
       </c>
       <c r="C21" t="n">
-        <v>191.6967807652077</v>
+        <v>382.9582510452434</v>
       </c>
       <c r="D21" t="n">
-        <v>191.6967807652077</v>
+        <v>382.9582510452434</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975219</v>
+        <v>382.9582510452434</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
         <v>32.45932575975219</v>
@@ -5840,13 +5840,13 @@
         <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456783</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5861,22 +5861,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1264.913381715707</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1264.913381715707</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V21" t="n">
-        <v>1029.761273483964</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W21" t="n">
-        <v>775.5239167557625</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="X21" t="n">
-        <v>567.6724165502296</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="Y21" t="n">
-        <v>359.9121177852757</v>
+        <v>557.4112803263704</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
         <v>32.45932575975219</v>
@@ -5940,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>779.107697186644</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="C23" t="n">
-        <v>779.107697186644</v>
+        <v>663.4273255867874</v>
       </c>
       <c r="D23" t="n">
-        <v>779.107697186644</v>
+        <v>305.1616269800369</v>
       </c>
       <c r="E23" t="n">
-        <v>779.107697186644</v>
+        <v>305.1616269800369</v>
       </c>
       <c r="F23" t="n">
-        <v>779.107697186644</v>
+        <v>305.1616269800369</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
         <v>32.45932575975218</v>
@@ -5989,7 +5989,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1586.751387217193</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T23" t="n">
-        <v>1364.007467597961</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U23" t="n">
-        <v>1110.170584530215</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="V23" t="n">
-        <v>779.107697186644</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="W23" t="n">
-        <v>779.107697186644</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="X23" t="n">
-        <v>779.107697186644</v>
+        <v>1032.389842527199</v>
       </c>
       <c r="Y23" t="n">
-        <v>779.107697186644</v>
+        <v>1032.389842527199</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.9123550408792</v>
+        <v>581.7166992481121</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975218</v>
+        <v>407.2636699669852</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>258.3292603057339</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975218</v>
@@ -6080,7 +6080,7 @@
         <v>905.36650176277</v>
       </c>
       <c r="N24" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O24" t="n">
         <v>1271.486777082839</v>
@@ -6092,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1541.019295328339</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1340.116286433832</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1111.91361897131</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V24" t="n">
-        <v>876.7615107395675</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W24" t="n">
-        <v>622.5241540113659</v>
+        <v>1165.543835238667</v>
       </c>
       <c r="X24" t="n">
-        <v>414.6726538058331</v>
+        <v>957.692335033134</v>
       </c>
       <c r="Y24" t="n">
-        <v>206.9123550408792</v>
+        <v>749.9320362681801</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>348.7701515881781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
         <v>32.45932575975218</v>
@@ -6180,19 +6180,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.2992974737949</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C26" t="n">
-        <v>442.2992974737949</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D26" t="n">
-        <v>442.2992974737949</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F26" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>834.8212426942227</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V26" t="n">
-        <v>795.067952743909</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W26" t="n">
-        <v>442.2992974737949</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="X26" t="n">
-        <v>442.2992974737949</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="Y26" t="n">
-        <v>442.2992974737949</v>
+        <v>776.5132769647469</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191.6967807652077</v>
+        <v>389.1047418657234</v>
       </c>
       <c r="C27" t="n">
-        <v>191.6967807652077</v>
+        <v>389.1047418657234</v>
       </c>
       <c r="D27" t="n">
-        <v>191.6967807652077</v>
+        <v>240.1703322044721</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>240.1703322044721</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>240.1703322044721</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>101.7579589636424</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
         <v>61.20822116384403</v>
@@ -6317,13 +6317,13 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6335,22 +6335,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1455.464052945775</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U27" t="n">
-        <v>1227.261385483253</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V27" t="n">
-        <v>1029.761273483964</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W27" t="n">
-        <v>775.5239167557625</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="X27" t="n">
-        <v>567.6724165502296</v>
+        <v>557.3200788857914</v>
       </c>
       <c r="Y27" t="n">
-        <v>359.9121177852757</v>
+        <v>557.3200788857914</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>191.8257232724345</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6417,19 +6417,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>896.0873936191333</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C29" t="n">
-        <v>896.0873936191333</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D29" t="n">
-        <v>896.0873936191333</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E29" t="n">
-        <v>896.0873936191333</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F29" t="n">
-        <v>486.2474219050906</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>76.40745019104781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6463,16 +6463,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6487,28 +6487,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1286.226725594945</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="U29" t="n">
-        <v>1286.226725594945</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="V29" t="n">
-        <v>1286.226725594945</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="W29" t="n">
-        <v>1286.226725594945</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="X29" t="n">
-        <v>1286.226725594945</v>
+        <v>1556.127353085079</v>
       </c>
       <c r="Y29" t="n">
-        <v>896.0873936191333</v>
+        <v>1556.127353085079</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>502.3813226752454</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C30" t="n">
-        <v>327.9282933941184</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D30" t="n">
-        <v>178.9938837328672</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="E30" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
         <v>32.45932575975218</v>
@@ -6542,52 +6542,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.665718993834</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U30" t="n">
-        <v>1321.360566897543</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V30" t="n">
-        <v>1086.2084586658</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W30" t="n">
-        <v>1086.2084586658</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X30" t="n">
-        <v>878.3569584602674</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.5966596953135</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="H31" t="n">
         <v>32.45932575975218</v>
@@ -6648,25 +6648,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5621133970632</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W31" t="n">
-        <v>106.5621133970632</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1210.404967794588</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.404967794588</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D32" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E32" t="n">
-        <v>852.1392691878377</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F32" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K32" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>828.8991375379167</v>
       </c>
       <c r="Y32" t="n">
-        <v>1597.00480785871</v>
+        <v>828.8991375379167</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>366.1498100463347</v>
+        <v>661.618777680701</v>
       </c>
       <c r="C33" t="n">
-        <v>191.6967807652077</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D33" t="n">
-        <v>191.6967807652077</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>505.948365158507</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M33" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
         <v>1380.722538783602</v>
@@ -6812,19 +6812,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894784</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="V33" t="n">
-        <v>709.8087082577356</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="W33" t="n">
-        <v>455.571351529534</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="X33" t="n">
-        <v>455.571351529534</v>
+        <v>1037.594413465723</v>
       </c>
       <c r="Y33" t="n">
-        <v>366.1498100463347</v>
+        <v>829.8341147007691</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
         <v>107.0302722280248</v>
@@ -6885,25 +6885,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>321.6559039998486</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>321.6559039998486</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>828.0875500720392</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C35" t="n">
-        <v>828.0875500720392</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D35" t="n">
-        <v>828.0875500720392</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E35" t="n">
         <v>442.2992974737949</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975218</v>
@@ -6937,16 +6937,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6967,22 +6967,22 @@
         <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1425.397688154633</v>
+        <v>1385.464766491862</v>
       </c>
       <c r="U35" t="n">
-        <v>1425.397688154633</v>
+        <v>1131.627883424116</v>
       </c>
       <c r="V35" t="n">
-        <v>1425.397688154633</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="W35" t="n">
-        <v>1425.397688154633</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="X35" t="n">
-        <v>1425.397688154633</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="Y35" t="n">
-        <v>1214.687390136161</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>154.6643821421424</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>154.6643821421424</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>154.6643821421424</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>154.6643821421424</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
@@ -7022,19 +7022,19 @@
         <v>208.2166101768439</v>
       </c>
       <c r="L36" t="n">
-        <v>208.2166101768439</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M36" t="n">
-        <v>607.6347467811067</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N36" t="n">
-        <v>1009.31890305804</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O36" t="n">
-        <v>1332.332410232598</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1574.576159436606</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,25 +7043,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V36" t="n">
-        <v>1387.814179755866</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W36" t="n">
-        <v>1365.635721271956</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X36" t="n">
-        <v>1365.635721271956</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.875422507002</v>
+        <v>329.1174114232695</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F37" t="n">
         <v>32.45932575975218</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>214.1077905899919</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X37" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>846.2271159476757</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C38" t="n">
-        <v>846.2271159476757</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D38" t="n">
-        <v>846.2271159476757</v>
+        <v>730.3924271552182</v>
       </c>
       <c r="E38" t="n">
-        <v>846.2271159476757</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F38" t="n">
-        <v>436.3871442336329</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975218</v>
@@ -7177,13 +7177,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y38" t="n">
-        <v>1232.826956011797</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>536.9689116288023</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C39" t="n">
-        <v>362.5158823476753</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D39" t="n">
-        <v>362.5158823476753</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E39" t="n">
-        <v>362.5158823476753</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>215.9813243745603</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975218</v>
@@ -7253,16 +7253,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N39" t="n">
         <v>1057.709031609043</v>
@@ -7283,22 +7283,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U39" t="n">
-        <v>1026.358376588747</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V39" t="n">
-        <v>791.2062683570039</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W39" t="n">
-        <v>536.9689116288023</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X39" t="n">
-        <v>536.9689116288023</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y39" t="n">
-        <v>536.9689116288023</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.8802040902677</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="C40" t="n">
-        <v>201.8802040902677</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
         <v>32.45932575975218</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X40" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.8802040902677</v>
+        <v>182.5759651720879</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1186.35324867879</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.35324867879</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="E41" t="n">
-        <v>442.2992974737949</v>
+        <v>449.0329900959785</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>39.19301838193576</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V41" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.500529726529</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y41" t="n">
-        <v>1186.35324867879</v>
+        <v>834.8212426942227</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>769.888189598963</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7496,46 +7496,46 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.799553443795</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1300.571324688946</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1072.368657226424</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V42" t="n">
-        <v>837.2165489946817</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W42" t="n">
-        <v>582.97919226648</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="X42" t="n">
-        <v>375.1276920609472</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.1276920609472</v>
+        <v>938.1035266190311</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>211.1299621906143</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>63.21686860822123</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>63.21686860822123</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
         <v>32.45932575975218</v>
@@ -7599,22 +7599,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>623.4831963284435</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="C44" t="n">
-        <v>623.4831963284435</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="D44" t="n">
-        <v>623.4831963284435</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="E44" t="n">
-        <v>623.4831963284435</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="F44" t="n">
-        <v>213.6432246144007</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G44" t="n">
-        <v>213.6432246144007</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U44" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V44" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="W44" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="X44" t="n">
-        <v>1400.222368368377</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="Y44" t="n">
-        <v>1010.083036392565</v>
+        <v>834.8212426942227</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.6311904264589</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="C45" t="n">
-        <v>340.6311904264589</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="D45" t="n">
-        <v>191.6967807652077</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E45" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975218</v>
+        <v>172.6527292199793</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>470.3844842016425</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6092173456783</v>
+        <v>869.8026208059055</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.293373622612</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O45" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U45" t="n">
-        <v>970.9353843802614</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V45" t="n">
-        <v>970.9353843802614</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W45" t="n">
-        <v>716.6980276520599</v>
+        <v>717.2865434327695</v>
       </c>
       <c r="X45" t="n">
-        <v>508.846527446527</v>
+        <v>509.4350432272366</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.846527446527</v>
+        <v>509.4350432272366</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7836,22 +7836,22 @@
         <v>139.6199360758254</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733471</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>375.2055399582311</v>
       </c>
       <c r="N12" t="n">
-        <v>418.8785602873039</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,22 +9008,22 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.9178485742653</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>99.73813450275543</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>364.5878977387108</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>380.7598033349566</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>92.88803957954771</v>
+        <v>419.1643094528387</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>63.84875129258624</v>
+        <v>308.5394070542105</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>118.980116585621</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>203.2271928126417</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>148.6170522310418</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>174.18790452568</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11153,13 +11153,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>357.6534580335538</v>
+        <v>303.3627954849607</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026376</v>
+        <v>199.5028366479762</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,10 +11390,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P45" t="n">
-        <v>133.7959972113199</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>59.52122669795426</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23308,7 +23308,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>316.1682967381973</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>99.83126332773654</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -23387,10 +23387,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>84.69968995873803</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23469,7 +23469,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>127.0265179935825</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>92.26259740459011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>54.2643839806592</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23554,16 +23554,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>72.27200351490151</v>
       </c>
       <c r="I15" t="n">
-        <v>63.85130334205608</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>134.0822771319449</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
         <v>159.8772180037952</v>
@@ -23706,10 +23706,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>330.0578349078048</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>89.02048586818051</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23861,25 +23861,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>52.3388948030437</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>84.72433886709692</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>94.36490978627249</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23937,7 +23937,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>92.04730137591964</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
         <v>219.4103988718534</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>319.0884138521358</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6721452338456</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>44.29414828178044</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>10.24881428779389</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
         <v>159.8772180037952</v>
@@ -24180,7 +24180,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>128.7502647990355</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>144.738225922452</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>159.7401620719344</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24305,7 +24305,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>244.1515309347198</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>134.0822771319449</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
@@ -24420,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>288.3965014193243</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>90.30326051198244</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24527,19 +24527,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>40.58497554076011</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24575,13 +24575,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>37.27547627012899</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>106.2262573958608</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>2.104484466239711</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
         <v>147.5019580580808</v>
@@ -24657,7 +24657,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,10 +24694,10 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>289.9316725287379</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>154.3459348695347</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>76.51755772272313</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -24815,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>206.8085402125682</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>53.78821379088268</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
@@ -24888,7 +24888,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24897,13 +24897,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>152.3478956280993</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>363.868216573726</v>
       </c>
       <c r="Y32" t="n">
-        <v>360.5360733284431</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>91.70726100648233</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>117.1553697089371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,13 +25125,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S34" t="n">
-        <v>180.215608244783</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>180.9828879768968</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.6347436177665</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>16.0452436898551</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>229.7383092618483</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25365,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>81.14884278648267</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>96.71817168765273</v>
       </c>
       <c r="F38" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>14.82496384139199</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>64.53209329237281</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25599,7 +25599,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>61.63766533429788</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>41.70072328554124</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>408.0471484345722</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>323.7221304187914</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>70.12911136445281</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>45.55017783130111</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>137.2767021272261</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
         <v>159.8772180037952</v>
@@ -25839,7 +25839,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>68.56368370317321</v>
       </c>
       <c r="U43" t="n">
         <v>286.3046124576955</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>351.7196356892085</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
-        <v>154.0682558496186</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>25.71482221187546</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>178.5144554859276</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>61.63766533429788</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>120.7272614763988</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551155.0810977994</v>
+        <v>551155.0810977992</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551155.0810977997</v>
+        <v>551155.0810977995</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>551155.0810977995</v>
+        <v>551155.0810977992</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>551155.0810977996</v>
+        <v>551155.0810977992</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>551155.0810977996</v>
+        <v>551155.0810977994</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>551155.0810977992</v>
+        <v>551155.0810977996</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>551155.0810977997</v>
+        <v>551155.081097799</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>551155.0810977996</v>
+        <v>551155.0810977995</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>256354.6764775279</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="F2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="G2" t="n">
+        <v>256354.6764775277</v>
+      </c>
+      <c r="H2" t="n">
         <v>256354.6764775276</v>
       </c>
-      <c r="G2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>256354.6764775275</v>
+      </c>
+      <c r="J2" t="n">
         <v>256354.6764775278</v>
       </c>
-      <c r="I2" t="n">
-        <v>256354.6764775276</v>
-      </c>
-      <c r="J2" t="n">
-        <v>256354.6764775276</v>
-      </c>
       <c r="K2" t="n">
-        <v>256354.6764775275</v>
+        <v>256354.6764775278</v>
       </c>
       <c r="L2" t="n">
         <v>256354.6764775276</v>
@@ -26352,10 +26352,10 @@
         <v>256354.6764775277</v>
       </c>
       <c r="O2" t="n">
-        <v>256354.6764775279</v>
+        <v>256354.6764775276</v>
       </c>
       <c r="P2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775277</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244789</v>
+        <v>41050.69786244794</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>60114.57655225279</v>
       </c>
       <c r="F4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="G4" t="n">
         <v>60114.57655225279</v>
       </c>
       <c r="H4" t="n">
-        <v>60114.57655225279</v>
+        <v>60114.57655225278</v>
       </c>
       <c r="I4" t="n">
         <v>60114.57655225278</v>
@@ -26453,7 +26453,7 @@
         <v>60114.57655225279</v>
       </c>
       <c r="N4" t="n">
-        <v>60114.57655225278</v>
+        <v>60114.57655225279</v>
       </c>
       <c r="O4" t="n">
         <v>60114.57655225279</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375756</v>
@@ -26493,13 +26493,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="K5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25876.25148962806</v>
+        <v>25876.25148962794</v>
       </c>
       <c r="C6" t="n">
-        <v>106645.6830211758</v>
+        <v>106645.6830211759</v>
       </c>
       <c r="D6" t="n">
         <v>106645.6830211758</v>
       </c>
       <c r="E6" t="n">
-        <v>-8409.022507105947</v>
+        <v>451.1169469327816</v>
       </c>
       <c r="F6" t="n">
-        <v>158531.1476181405</v>
+        <v>167391.2870721796</v>
       </c>
       <c r="G6" t="n">
-        <v>158531.1476181405</v>
+        <v>167391.2870721796</v>
       </c>
       <c r="H6" t="n">
-        <v>158531.1476181406</v>
+        <v>167391.2870721795</v>
       </c>
       <c r="I6" t="n">
-        <v>158531.1476181405</v>
+        <v>167391.2870721795</v>
       </c>
       <c r="J6" t="n">
-        <v>95471.20501903426</v>
+        <v>104331.3444730735</v>
       </c>
       <c r="K6" t="n">
-        <v>158531.1476181404</v>
+        <v>167391.2870721798</v>
       </c>
       <c r="L6" t="n">
-        <v>158531.1476181405</v>
+        <v>167391.2870721795</v>
       </c>
       <c r="M6" t="n">
-        <v>117480.4497556926</v>
+        <v>126340.5892097317</v>
       </c>
       <c r="N6" t="n">
-        <v>158531.1476181406</v>
+        <v>167391.2870721797</v>
       </c>
       <c r="O6" t="n">
-        <v>158531.1476181408</v>
+        <v>167391.2870721796</v>
       </c>
       <c r="P6" t="n">
-        <v>158531.1476181405</v>
+        <v>167391.2870721796</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>146.571804419537</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192434</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>142.265735089176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.43901071984251</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>181.755901659364</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>131.0403655408331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.63594515755861</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>342.8322390905863</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>32.78490645108226</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>15.59069763800895</v>
       </c>
     </row>
     <row r="7">
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>284.4427772960522</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>146.5077429405719</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>154.8937928567775</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>312.9531394448605</v>
       </c>
       <c r="N12" t="n">
-        <v>369.5327107537265</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>398.571999040688</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>315.2420482051334</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35983,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>331.4139538013792</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>43.54219004597032</v>
+        <v>369.8184599192613</v>
       </c>
       <c r="O24" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>244.6906557616239</v>
@@ -36685,13 +36685,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>14.50290175900885</v>
+        <v>259.1935575206331</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>110.3391532330937</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>48.8789177282863</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36931,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>153.8813432790643</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37390,13 +37390,13 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37405,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>48.87891772828636</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223148</v>
@@ -37633,7 +37633,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>124.8420549921026</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37797,7 +37797,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q41" t="n">
         <v>53.63987744680304</v>
@@ -37864,7 +37864,7 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366292</v>
@@ -37873,13 +37873,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>290.0674086301152</v>
+        <v>235.7767460815221</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>112.5702101577124</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38110,10 +38110,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>60.02388433300664</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>
